--- a/INTLINE/data/142/STANOR/old/12462 Producer price index.xlsx
+++ b/INTLINE/data/142/STANOR/old/12462 Producer price index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <x:si>
     <x:t>12462: Producer price index. Oil/ gas extraction, manufacturing, mining and electricity (2015=100), by industry/commodity group, market, month and contents</x:t>
   </x:si>
@@ -806,6 +806,15 @@
   </x:si>
   <x:si>
     <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
   </x:si>
   <x:si>
     <x:t>Producer price index (2015=100)</x:t>
@@ -836,13 +845,13 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Producer price index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211210 08:00</x:t>
+    <x:t>20220310 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -866,7 +875,7 @@
     <x:t>Håvard Georg Jensen, Statistics Norway</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> +47 40 90 26 96</x:t>
+    <x:t xml:space="preserve"> +47 40 90 26 86</x:t>
   </x:si>
   <x:si>
     <x:t>geo@ssb.no</x:t>
@@ -1325,23 +1334,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:JE69"/>
+  <x:dimension ref="A1:JH69"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="265" width="30.050625" style="0" customWidth="1"/>
+    <x:col min="1" max="268" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:265">
+    <x:row r="1" spans="1:268">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:265">
+    <x:row r="3" spans="1:268">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2131,804 +2138,822 @@
       <x:c r="JE3" s="2" t="s">
         <x:v>263</x:v>
       </x:c>
+      <x:c r="JF3" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="JG3" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="JH3" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:265">
+    <x:row r="4" spans="1:268">
       <x:c r="C4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="AZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="BZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="CZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="DZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="ED4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="ER4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="ES4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="ET4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="EZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="FZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="GZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HI4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="HZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="ID4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IF4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IG4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IH4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="II4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IJ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IK4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IL4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IM4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IN4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IO4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IP4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IQ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IR4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IS4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IT4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IU4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IV4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IW4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IX4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IY4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="IZ4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="JA4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="JB4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="JC4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="JD4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="JE4" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="JF4" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="JG4" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="JH4" s="2" t="s">
+        <x:v>267</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:265">
+    <x:row r="5" spans="1:268">
       <x:c r="A5" s="2" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>41.2</x:v>
@@ -3719,13 +3744,22 @@
       <x:c r="JE5" s="3" t="n">
         <x:v>166.7</x:v>
       </x:c>
+      <x:c r="JF5" s="3" t="n">
+        <x:v>180.2</x:v>
+      </x:c>
+      <x:c r="JG5" s="3" t="n">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="JH5" s="3" t="n">
+        <x:v>181.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:265">
+    <x:row r="6" spans="1:268">
       <x:c r="A6" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>28.4</x:v>
@@ -4516,13 +4550,22 @@
       <x:c r="JE6" s="3" t="n">
         <x:v>236.4</x:v>
       </x:c>
+      <x:c r="JF6" s="3" t="n">
+        <x:v>264.1</x:v>
+      </x:c>
+      <x:c r="JG6" s="3" t="n">
+        <x:v>258.1</x:v>
+      </x:c>
+      <x:c r="JH6" s="3" t="n">
+        <x:v>262.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:265">
+    <x:row r="7" spans="1:268">
       <x:c r="A7" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>60.4</x:v>
@@ -5313,13 +5356,22 @@
       <x:c r="JE7" s="3" t="n">
         <x:v>136.4</x:v>
       </x:c>
+      <x:c r="JF7" s="3" t="n">
+        <x:v>137.7</x:v>
+      </x:c>
+      <x:c r="JG7" s="3" t="n">
+        <x:v>139.9</x:v>
+      </x:c>
+      <x:c r="JH7" s="3" t="n">
+        <x:v>144.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:265">
+    <x:row r="8" spans="1:268">
       <x:c r="A8" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>269</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>266</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>62.3</x:v>
@@ -6110,13 +6162,22 @@
       <x:c r="JE8" s="3" t="n">
         <x:v>358.6</x:v>
       </x:c>
+      <x:c r="JF8" s="3" t="n">
+        <x:v>521.3</x:v>
+      </x:c>
+      <x:c r="JG8" s="3" t="n">
+        <x:v>434.4</x:v>
+      </x:c>
+      <x:c r="JH8" s="3" t="n">
+        <x:v>422</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:265">
+    <x:row r="9" spans="1:268">
       <x:c r="A9" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>65.6</x:v>
@@ -6907,13 +6968,22 @@
       <x:c r="JE9" s="3" t="n">
         <x:v>122.1</x:v>
       </x:c>
+      <x:c r="JF9" s="3" t="n">
+        <x:v>123.6</x:v>
+      </x:c>
+      <x:c r="JG9" s="3" t="n">
+        <x:v>125.9</x:v>
+      </x:c>
+      <x:c r="JH9" s="3" t="n">
+        <x:v>128.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:265">
+    <x:row r="10" spans="1:268">
       <x:c r="A10" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>30.9</x:v>
@@ -7704,203 +7774,215 @@
       <x:c r="JE10" s="3" t="n">
         <x:v>239.5</x:v>
       </x:c>
+      <x:c r="JF10" s="3" t="n">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="JG10" s="3" t="n">
+        <x:v>261.6</x:v>
+      </x:c>
+      <x:c r="JH10" s="3" t="n">
+        <x:v>266.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:265">
+    <x:row r="12" spans="1:268">
       <x:c r="A12" s="4" t="s">
-        <x:v>272</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:265">
+    <x:row r="14" spans="1:268">
       <x:c r="A14" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:265">
+    <x:row r="15" spans="1:268">
       <x:c r="A15" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:265">
+    <x:row r="16" spans="1:268">
       <x:c r="A16" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:265">
+    <x:row r="18" spans="1:268">
       <x:c r="A18" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:265">
+    <x:row r="19" spans="1:268">
       <x:c r="A19" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:268">
+      <x:c r="A21" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:268">
+      <x:c r="A22" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:265">
-      <x:c r="A21" s="0" t="s">
-        <x:v>278</x:v>
+    <x:row r="23" spans="1:268">
+      <x:c r="A23" s="0" t="s">
+        <x:v>282</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:265">
-      <x:c r="A22" s="0" t="s">
-        <x:v>274</x:v>
+    <x:row r="24" spans="1:268">
+      <x:c r="A24" s="0" t="s">
+        <x:v>283</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:265">
-      <x:c r="A23" s="0" t="s">
-        <x:v>279</x:v>
+    <x:row r="25" spans="1:268">
+      <x:c r="A25" s="0" t="s">
+        <x:v>284</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:265">
-      <x:c r="A24" s="0" t="s">
-        <x:v>280</x:v>
+    <x:row r="27" spans="1:268">
+      <x:c r="A27" s="0" t="s">
+        <x:v>285</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:265">
-      <x:c r="A25" s="0" t="s">
-        <x:v>281</x:v>
+    <x:row r="28" spans="1:268">
+      <x:c r="A28" s="0" t="s">
+        <x:v>286</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:265">
-      <x:c r="A27" s="0" t="s">
-        <x:v>282</x:v>
+    <x:row r="29" spans="1:268">
+      <x:c r="A29" s="0" t="s">
+        <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:265">
-      <x:c r="A28" s="0" t="s">
-        <x:v>283</x:v>
+    <x:row r="31" spans="1:268">
+      <x:c r="A31" s="0" t="s">
+        <x:v>288</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:265">
-      <x:c r="A29" s="0" t="s">
-        <x:v>284</x:v>
+    <x:row r="32" spans="1:268">
+      <x:c r="A32" s="0" t="s">
+        <x:v>289</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:265">
-      <x:c r="A31" s="0" t="s">
-        <x:v>285</x:v>
+    <x:row r="33" spans="1:268">
+      <x:c r="A33" s="0" t="s">
+        <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:265">
-      <x:c r="A32" s="0" t="s">
-        <x:v>286</x:v>
+    <x:row r="35" spans="1:268">
+      <x:c r="A35" s="0" t="s">
+        <x:v>291</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:265">
-      <x:c r="A33" s="0" t="s">
-        <x:v>287</x:v>
+    <x:row r="36" spans="1:268">
+      <x:c r="A36" s="0" t="s">
+        <x:v>292</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:265">
-      <x:c r="A35" s="0" t="s">
-        <x:v>288</x:v>
+    <x:row r="37" spans="1:268">
+      <x:c r="A37" s="0" t="s">
+        <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:265">
-      <x:c r="A36" s="0" t="s">
-        <x:v>289</x:v>
+    <x:row r="39" spans="1:268">
+      <x:c r="A39" s="0" t="s">
+        <x:v>294</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:265">
-      <x:c r="A37" s="0" t="s">
-        <x:v>290</x:v>
+    <x:row r="40" spans="1:268">
+      <x:c r="A40" s="0" t="s">
+        <x:v>295</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:265">
-      <x:c r="A39" s="0" t="s">
-        <x:v>291</x:v>
+    <x:row r="41" spans="1:268">
+      <x:c r="A41" s="0" t="s">
+        <x:v>296</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:265">
-      <x:c r="A40" s="0" t="s">
-        <x:v>292</x:v>
+    <x:row r="45" spans="1:268">
+      <x:c r="A45" s="0" t="s">
+        <x:v>297</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:265">
-      <x:c r="A41" s="0" t="s">
-        <x:v>293</x:v>
+    <x:row r="47" spans="1:268">
+      <x:c r="A47" s="0" t="s">
+        <x:v>298</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:265">
-      <x:c r="A45" s="0" t="s">
-        <x:v>294</x:v>
+    <x:row r="48" spans="1:268">
+      <x:c r="A48" s="0" t="s">
+        <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:265">
-      <x:c r="A47" s="0" t="s">
-        <x:v>295</x:v>
+    <x:row r="49" spans="1:268">
+      <x:c r="A49" s="0" t="s">
+        <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:265">
-      <x:c r="A48" s="0" t="s">
-        <x:v>274</x:v>
+    <x:row r="50" spans="1:268">
+      <x:c r="A50" s="0" t="s">
+        <x:v>300</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:265">
-      <x:c r="A49" s="0" t="s">
-        <x:v>296</x:v>
+    <x:row r="51" spans="1:268">
+      <x:c r="A51" s="0" t="s">
+        <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:265">
-      <x:c r="A50" s="0" t="s">
-        <x:v>297</x:v>
+    <x:row r="52" spans="1:268">
+      <x:c r="A52" s="0" t="s">
+        <x:v>301</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:265">
-      <x:c r="A51" s="0" t="s">
-        <x:v>274</x:v>
+    <x:row r="54" spans="1:268">
+      <x:c r="A54" s="0" t="s">
+        <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:265">
-      <x:c r="A52" s="0" t="s">
-        <x:v>298</x:v>
+    <x:row r="55" spans="1:268">
+      <x:c r="A55" s="0" t="s">
+        <x:v>267</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:265">
-      <x:c r="A54" s="0" t="s">
-        <x:v>299</x:v>
+    <x:row r="56" spans="1:268">
+      <x:c r="A56" s="0" t="s">
+        <x:v>303</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:265">
-      <x:c r="A55" s="0" t="s">
-        <x:v>264</x:v>
+    <x:row r="58" spans="1:268">
+      <x:c r="A58" s="0" t="s">
+        <x:v>277</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:265">
-      <x:c r="A56" s="0" t="s">
-        <x:v>300</x:v>
+    <x:row r="59" spans="1:268">
+      <x:c r="A59" s="0" t="s">
+        <x:v>304</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:265">
-      <x:c r="A58" s="0" t="s">
-        <x:v>274</x:v>
+    <x:row r="65" spans="1:268">
+      <x:c r="A65" s="0" t="s">
+        <x:v>305</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:265">
-      <x:c r="A59" s="0" t="s">
-        <x:v>301</x:v>
+    <x:row r="66" spans="1:268">
+      <x:c r="A66" s="0" t="s">
+        <x:v>306</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:265">
-      <x:c r="A65" s="0" t="s">
-        <x:v>302</x:v>
+    <x:row r="68" spans="1:268">
+      <x:c r="A68" s="0" t="s">
+        <x:v>307</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:265">
-      <x:c r="A66" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:265">
-      <x:c r="A68" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:265">
+    <x:row r="69" spans="1:268">
       <x:c r="A69" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A12:JH12"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
